--- a/sweethome_정의서.xlsx
+++ b/sweethome_정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\j_pro\project_h_o (2)\project_h_o\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\j_pro\project_h_o (2)\project_h_o\sweethome\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="278">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOOKCOLLECT{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>책 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOOKS{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOKS{NAME, DELYN}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COUPON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿠폰 총시간 조회(사용자별) K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿠폰 총시간 조회(전체) P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,18 +164,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COUPON{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/coupon/time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COUPONTIME{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DOIT BATCH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOITBATCH{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,18 +360,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제안 조회(사용자, 기간, OK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHEDULE{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/schedule/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUGGEST{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/suggest/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,450 +492,386 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/report/all/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/schedule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/suggest/all/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params{userid, basedate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params{basedate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일배치 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일배치 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일배치 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일배치 조회(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일배치 조회(1건)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 수정(완료표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 삭제(기준일자+사용자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 조회(전체, 기준일자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서록 조회(사용자별 + 오늘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params{userid, selDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/suggest/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/suggest/ok/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/coupon/time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/coupon/time/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일배치 조회(사용자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params{userid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST&lt;REPORT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST&lt;COUPON&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST&lt;COUPONTIME&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST&lt;SUGGEST&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/schedule/:id</t>
+  </si>
+  <si>
+    <t>/library/admin/books/new/:colid</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>/schedule/new</t>
+  </si>
+  <si>
+    <t>/doit</t>
+  </si>
+  <si>
+    <t>/doit/batch</t>
+  </si>
+  <si>
+    <t>/doit/batch/new</t>
+  </si>
+  <si>
+    <t>/doit/batch/:id'</t>
+  </si>
+  <si>
+    <t>/library</t>
+  </si>
+  <si>
+    <t>/library/report/:id/:userid</t>
+  </si>
+  <si>
+    <t>/library/admin</t>
+  </si>
+  <si>
+    <t>/library/admin/books</t>
+  </si>
+  <si>
+    <t>/library/admin/books/:id/:colid</t>
+  </si>
+  <si>
+    <t>/library/admin/collect</t>
+  </si>
+  <si>
+    <t>/library/admin/collect/new</t>
+  </si>
+  <si>
+    <t>/library/admin/collect/:id</t>
+  </si>
+  <si>
     <t>/suggest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/suggest/all/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/suggest/all/ok/user</t>
+  </si>
+  <si>
+    <t>/suggest/new</t>
+  </si>
+  <si>
+    <t>/coupon</t>
+  </si>
+  <si>
+    <t>/coupon/admin</t>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule(Main)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suggest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do it Batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 삭제, 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자(P)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자(K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 자동생성 내용 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 배치 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 배치 삭제, 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독후감 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독후감 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전집 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전집 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전집 삭제, 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 삭제, 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안 리스트 출력, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 리스트 출력, 쿠폰시간 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 리스트 출력, 쿠폰시간 출력, 쿠폰 추가, 쿠폰 시간 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweetHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suggest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doit Batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coupon Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book Collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>params{userid, basedate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params{basedate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일배치 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일배치 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일배치 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일배치 조회(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일배치 조회(1건)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일 수정(완료표시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일 삭제(기준일자+사용자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일 조회(전체, 기준일자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독서록 조회(사용자별 + 오늘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params{userid, selDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/report/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/suggest/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/suggest/ok/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/coupon/time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/coupon/time/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일배치 조회(사용자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params{userid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;SCHEDULE&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;DOITBATCH&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOITBATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;DOIT&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;COLLECT&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLLECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;BOOK&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;REPORT&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;COUPON&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;COUPONTIME&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUGGEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;SUGGEST&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/schedule/:id</t>
-  </si>
-  <si>
-    <t>/library/admin/books/new/:colid</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>/login</t>
-  </si>
-  <si>
-    <t>/schedule/new</t>
-  </si>
-  <si>
-    <t>/doit</t>
-  </si>
-  <si>
-    <t>/doit/batch</t>
-  </si>
-  <si>
-    <t>/doit/batch/new</t>
-  </si>
-  <si>
-    <t>/doit/batch/:id'</t>
-  </si>
-  <si>
-    <t>/library</t>
-  </si>
-  <si>
-    <t>/library/report/:id/:userid</t>
-  </si>
-  <si>
-    <t>/library/admin</t>
-  </si>
-  <si>
-    <t>/library/admin/books</t>
-  </si>
-  <si>
-    <t>/library/admin/books/:id/:colid</t>
-  </si>
-  <si>
-    <t>/library/admin/collect</t>
-  </si>
-  <si>
-    <t>/library/admin/collect/new</t>
-  </si>
-  <si>
-    <t>/library/admin/collect/:id</t>
-  </si>
-  <si>
-    <t>/suggest</t>
-  </si>
-  <si>
-    <t>/suggest/new</t>
-  </si>
-  <si>
-    <t>/coupon</t>
-  </si>
-  <si>
-    <t>/coupon/admin</t>
-  </si>
-  <si>
-    <t>URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule(Main)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suggest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coupon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do it Batch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정리스트 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 삭제, 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일 리스트 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자(P)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자(K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일 자동생성 내용 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일 배치 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일 배치 삭제, 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독후감 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독후감 리스트 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 리스트 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전집 리스트 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전집 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전집 삭제, 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 삭제, 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제안 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제안 리스트 출력, 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 리스트 출력, 쿠폰시간 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰 리스트 출력, 쿠폰시간 출력, 쿠폰 추가, 쿠폰 시간 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SweetHome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Library</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suggest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Doit Batch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coupon Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Book Collect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>params{userid, basedate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할일 조회(기준일자+사용자)  + 배치정보로 생성함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1016,22 +908,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REPORT{id, basedate, content, userid, bookid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPORT{id, content}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전집 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOOKCOLLECT{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/book</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,10 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHEDULE{ID, CONTENT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,6 +961,876 @@
   </si>
   <si>
     <t>/coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 총시간 조회(사용자별) K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "userid": "MOM",
+  "grade": "P",
+  "name": "엄마",
+  "password": "9999"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 6,
+  "basedate": "2023-11-25",
+  "content": "김장하러가는날"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": 6,
+    "basedate": "2023-11-25",
+    "content": "김장하러가는날"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "",
+    "basedate": "2023-11-19",
+    "content": "왕할머니생신"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "8",
+    "content": "자전거타는날"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "",
+    "defineday": "월화수목금",
+    "content": "아이캔두",
+    "user": {
+        "userid": "DO"
+    }    
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "3",
+    "defineday": "월화수목금",
+    "content": "아이캔두",
+    "user": {
+        "userid": "MIN"
+    }    
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": 25,
+    "user": {
+      "userid": "MIN",
+      "grade": "K",
+      "name": "민찬",
+      "password": "0714"
+    },
+    "basedate": "2023-11-10",
+    "content": "아이캔두",
+    "done": "N"
+  },
+  {
+    "id": 26,
+    "user": {
+      "userid": "MIN",
+      "grade": "K",
+      "name": "민찬",
+      "password": "0714"
+    },
+    "basedate": "2023-11-10",
+    "content": "도요새",
+    "done": "N"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 3,
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "defineday": "월화수목금",
+        "content": "아이캔두"
+    },
+    {
+        "id": 4,
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "defineday": "월화수목금",
+        "content": "아이캔두"
+    },
+    {
+        "id": 5,
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "defineday": "월화수목금",
+        "content": "도요새"
+    },
+    {
+        "id": 6,
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "defineday": "월화수목금",
+        "content": "도요새"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 3,
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "defineday": "월화수목금",
+        "content": "아이캔두"
+    },
+    {
+        "id": 5,
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "defineday": "월화수목금",
+        "content": "도요새"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 4,
+    "user": {
+        "userid": "DO",
+        "grade": "K",
+        "name": "도현",
+        "password": "0613"
+    },
+    "defineday": "월화수목금",
+    "content": "아이캔두"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일 조회(기준일자+사용자)  
++ 배치정보로 생성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": 1,
+    "name": "세계 명작동화",
+    "delyn": "N"
+  },
+  {
+    "id": 2,
+    "name": "솔루토이 한국사",
+    "delyn": "N"
+  },
+  {
+    "id": 3,
+    "name": "솔루토이 지리",
+    "delyn": "N"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 1,
+  "name": "세계 명작동화",
+  "delyn": "N"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "",
+    "name":"전집이름",
+    "delyn": "N"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "4",
+    "name":"전집이름",
+    "delyn": "N"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": 1,
+    "name": "인어공주",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 2,
+    "name": "헨젤과 그레텔",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 3,
+    "name": "장화신은 고양이",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 4,
+    "name": "잭과 콩나무",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 5,
+    "name": "미운 아기 오리",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 6,
+    "name": "알라딘과 요술 램프",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 7,
+    "name": "백설 공주",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 8,
+    "name": "아기 돼지 삼형제",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 9,
+    "name": "황새가 된 임금님",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 10,
+    "name": "신드바드의 모험",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 11,
+    "name": "브레멘의 음악대",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 12,
+    "name": "백조의 호수",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 13,
+    "name": "벌거숭이 임금님",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 14,
+    "name": "빨강모자",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 15,
+    "name": "곰 세마리",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 16,
+    "name": "알리바바와 40인의 도둑",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 17,
+    "name": "돼지치기 왕자",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 18,
+    "name": "피리부는 사나이",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 19,
+    "name": "잠자는 숲 속의 공주",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 20,
+    "name": "성냥팔이 소녀",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  {
+    "id": 62,
+    "name": "21. 황금 거위",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 4,
+  "name": "잭과 콩나무",
+  "bookcollect": {
+    "id": 1,
+    "name": "세계 명작동화",
+    "delyn": "N"
+  },
+  "delyn": "N"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "",
+    "name":"책이름",
+    "delyn": "N",
+    "bookcollect": {
+        "id": 1
+    }    
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "4",
+    "name":"책이름",
+    "delyn": "N",
+    "bookcollect": {
+        "id": 1
+    }    
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "",
+    "basedate": "2023-10-31",
+    "content": "내용",
+    "userid": "MIN",
+    "bookid": 1    
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "",
+    "content": "내용"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 1,
+  "basedate": "2023-10-31",
+  "user": {
+    "userid": "MIN",
+    "grade": "K",
+    "name": "민찬",
+    "password": "0714"
+  },
+  "book": {
+    "id": 1,
+    "name": "인어공주",
+    "bookcollect": {
+      "id": 1,
+      "name": "세계 명작동화",
+      "delyn": "N"
+    },
+    "delyn": "N"
+  },
+  "content": "인어공주는 물거품이 되었어요. 너무 슬프다. ㅠㅠ"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": 3,
+    "basedate": "2023-11-07",
+    "user": {
+      "userid": "DO",
+      "grade": "K",
+      "name": "도현",
+      "password": "0613"
+    },
+    "book": {
+      "id": 5,
+      "name": "미운 아기 오리",
+      "bookcollect": {
+        "id": 1,
+        "name": "세계 명작동화",
+        "delyn": "N"
+      },
+      "delyn": "N"
+    },
+    "content": "아기 오리가 더 귀여운데.."
+  },
+  {
+    "id": 2,
+    "basedate": "2023-11-02",
+    "user": {
+      "userid": "MIN",
+      "grade": "K",
+      "name": "민찬",
+      "password": "0714"
+    },
+    "book": {
+      "id": 7,
+      "name": "백설 공주",
+      "bookcollect": {
+        "id": 1,
+        "name": "세계 명작동화",
+        "delyn": "N"
+      },
+      "delyn": "N"
+    },
+    "content": "백설공주는 왜 사과를 먹어서...."
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "basedate": "2023-10-31",
+    "content": "내용",
+    "type":"EAT",
+    "okflag":"N",
+    "user": {
+        "userid": "MIN"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 9,
+        "basedate": "2023-11-07",
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "type": "DO",
+        "content": "연날리기",
+        "okflag": "N"
+    },
+    {
+        "id": 8,
+        "basedate": "2023-11-02",
+        "user": {
+            "userid": "MOM",
+            "grade": "P",
+            "name": "엄마",
+            "password": "9999"
+        },
+        "type": "DO",
+        "content": "모두의 마블 게임하기",
+        "okflag": "N"
+    },
+    {
+        "id": 7,
+        "basedate": "2023-11-02",
+        "user": {
+            "userid": "MOM",
+            "grade": "P",
+            "name": "엄마",
+            "password": "9999"
+        },
+        "type": "GO",
+        "content": "공원가기",
+        "okflag": "N"
+    },
+    {
+        "id": 6,
+        "basedate": "2023-11-02",
+        "user": {
+            "userid": "MOM",
+            "grade": "P",
+            "name": "엄마",
+            "password": "9999"
+        },
+        "type": "EAT",
+        "content": "삼계탕 먹기",
+        "okflag": "N"
+    },
+    {
+        "id": 5,
+        "basedate": "2023-11-01",
+        "user": {
+            "userid": "MOM",
+            "grade": "P",
+            "name": "엄마",
+            "password": "9999"
+        },
+        "type": "GO",
+        "content": "박물관 가기",
+        "okflag": "N"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/suggest/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 9,
+    "basedate": "2023-11-07",
+    "user": {
+        "userid": "DO",
+        "grade": "K",
+        "name": "도현",
+        "password": "0613"
+    },
+    "type": "DO",
+    "content": "연날리기",
+    "okflag": "N"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/report/all/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안 조회(사용자, 기간, OK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/suggest/all/ok/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>params{userid, startDate, endDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 32,
+        "basedate": "2023-11-13",
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "type": "BOOK",
+        "content": "독후감 - 알라딘과 요술 램프",
+        "playtime": 10
+    },
+    {
+        "id": 31,
+        "basedate": "2023-11-08",
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10
+    },
+    {
+        "id": 30,
+        "basedate": "2023-11-07",
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "type": "BOOK",
+        "content": "독후감 - 미운 아기 오리",
+        "playtime": 10
+    },
+    {
+        "id": 29,
+        "basedate": "2023-11-07",
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10
+    },
+    {
+        "id": 28,
+        "basedate": "2023-11-02",
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "type": "AMAZING",
+        "content": "책상정리를 했어요",
+        "playtime": 10
+    },
+    {
+        "id": 27,
+        "basedate": "2023-11-02",
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "type": "AMAZING",
+        "content": "청소를 도왔어요",
+        "playtime": 10
+    },
+    {
+        "id": 7,
+        "basedate": "2023-11-02",
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10
+    },
+    {
+        "id": 6,
+        "basedate": "2023-11-02",
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "type": "BOOK",
+        "content": "독후감 - 백설 공주",
+        "playtime": 10
+    },
+    {
+        "id": 4,
+        "basedate": "2023-11-01",
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "basedate": "2023-10-31",
+    "content": "내용",
+    "type":"AMAZING",
+    "playtime":10,
+    "user": {
+        "userid": "MIN"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": "MIN",
+        "user": {
+            "userid": "MIN",
+            "grade": "K",
+            "name": "민찬",
+            "password": "0714"
+        },
+        "totaltime": 60
+    },
+    {
+        "id": "DO",
+        "user": {
+            "userid": "DO",
+            "grade": "K",
+            "name": "도현",
+            "password": "0613"
+        },
+        "totaltime": 60
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": "MIN",
+    "time": 30
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +2097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1406,16 +2152,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1436,13 +2194,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,20 +2215,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2713,8 +3465,8 @@
   <dimension ref="A2:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48:D49"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2722,19 +3474,19 @@
     <col min="1" max="1" width="12.75" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -2749,16 +3501,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -2770,335 +3522,335 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="27"/>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>242</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="36" t="s">
+    <row r="5" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" s="36"/>
+      <c r="F5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+        <v>105</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>40</v>
+        <v>111</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>244</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="36"/>
+    <row r="10" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="H12" s="39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="18" t="s">
-        <v>245</v>
+        <v>105</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="32" t="s">
+        <v>218</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>242</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>250</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>156</v>
+        <v>117</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>247</v>
+    </row>
+    <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
@@ -3109,36 +3861,36 @@
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
+      <c r="G19" s="39" t="s">
+        <v>253</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="36" t="s">
+    <row r="20" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="H20" s="36"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -3151,11 +3903,11 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
+    <row r="22" spans="1:8" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -3164,604 +3916,602 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="21"/>
+      <c r="H22" s="39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="21" t="s">
-        <v>248</v>
+        <v>105</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>257</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="36" t="s">
+    <row r="25" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="G30" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+    <row r="32" spans="1:8" ht="363" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>162</v>
+        <v>111</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="23"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="27"/>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>263</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="36"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
+    <row r="40" spans="1:8" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>166</v>
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="E44" s="36" t="s">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>249</v>
+      <c r="F44" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>163</v>
+        <v>110</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="33"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="33"/>
+      <c r="B48" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="363" x14ac:dyDescent="0.3">
+      <c r="A49" s="33"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A50" s="34"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>39</v>
+      <c r="G50" s="39" t="s">
+        <v>277</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -3806,20 +4556,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H2" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="32"/>
+      <c r="H2" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H4" s="10"/>
-      <c r="K4" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="32"/>
+      <c r="K4" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C5" s="13"/>
@@ -3843,140 +4593,151 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="E7" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="H7" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="K7" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="L7" s="34"/>
-      <c r="N7" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="O7" s="34"/>
+      <c r="B7" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="E7" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="H7" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="K7" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="N7" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="E8" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="H8" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="K8" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="N8" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="O8" s="21"/>
+      <c r="B8" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="N8" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="22"/>
       <c r="E9" s="12"/>
-      <c r="H9" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="I9" s="30"/>
+      <c r="H9" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="25"/>
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E10" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="34"/>
+      <c r="E10" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="35"/>
       <c r="H10" s="12"/>
-      <c r="N10" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="O10" s="34"/>
+      <c r="N10" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E11" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="H11" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="N11" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="O11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="H11" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="N11" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E12" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="H12" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="I12" s="21"/>
+      <c r="E12" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H14" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="I14" s="34"/>
+      <c r="H14" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H15" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="I15" s="30"/>
+      <c r="H15" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H16" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="I16" s="21"/>
+      <c r="H16" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="I18" s="34"/>
+      <c r="H18" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19" s="30"/>
+      <c r="H19" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="I20" s="21"/>
+      <c r="H20" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="N8:O8"/>
@@ -3993,17 +4754,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4045,282 +4795,282 @@
   <sheetData>
     <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/sweethome_정의서.xlsx
+++ b/sweethome_정의서.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="281">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제안 조회(1건)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제안 조회(사용자, 기간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,14 +577,6 @@
   </si>
   <si>
     <t>LIST&lt;REPORT&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;COUPON&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST&lt;COUPONTIME&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1029,111 +1017,6 @@
         "userid": "MIN"
     }    
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-    "id": 25,
-    "user": {
-      "userid": "MIN",
-      "grade": "K",
-      "name": "민찬",
-      "password": "0714"
-    },
-    "basedate": "2023-11-10",
-    "content": "아이캔두",
-    "done": "N"
-  },
-  {
-    "id": 26,
-    "user": {
-      "userid": "MIN",
-      "grade": "K",
-      "name": "민찬",
-      "password": "0714"
-    },
-    "basedate": "2023-11-10",
-    "content": "도요새",
-    "done": "N"
-  }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-    {
-        "id": 3,
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "defineday": "월화수목금",
-        "content": "아이캔두"
-    },
-    {
-        "id": 4,
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "defineday": "월화수목금",
-        "content": "아이캔두"
-    },
-    {
-        "id": 5,
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "defineday": "월화수목금",
-        "content": "도요새"
-    },
-    {
-        "id": 6,
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "defineday": "월화수목금",
-        "content": "도요새"
-    }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-    {
-        "id": 3,
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "defineday": "월화수목금",
-        "content": "아이캔두"
-    },
-    {
-        "id": 5,
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "defineday": "월화수목금",
-        "content": "도요새"
-    }
-]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1468,77 +1351,6 @@
   </si>
   <si>
     <t>{
-  "id": 1,
-  "basedate": "2023-10-31",
-  "user": {
-    "userid": "MIN",
-    "grade": "K",
-    "name": "민찬",
-    "password": "0714"
-  },
-  "book": {
-    "id": 1,
-    "name": "인어공주",
-    "bookcollect": {
-      "id": 1,
-      "name": "세계 명작동화",
-      "delyn": "N"
-    },
-    "delyn": "N"
-  },
-  "content": "인어공주는 물거품이 되었어요. 너무 슬프다. ㅠㅠ"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-    "id": 3,
-    "basedate": "2023-11-07",
-    "user": {
-      "userid": "DO",
-      "grade": "K",
-      "name": "도현",
-      "password": "0613"
-    },
-    "book": {
-      "id": 5,
-      "name": "미운 아기 오리",
-      "bookcollect": {
-        "id": 1,
-        "name": "세계 명작동화",
-        "delyn": "N"
-      },
-      "delyn": "N"
-    },
-    "content": "아기 오리가 더 귀여운데.."
-  },
-  {
-    "id": 2,
-    "basedate": "2023-11-02",
-    "user": {
-      "userid": "MIN",
-      "grade": "K",
-      "name": "민찬",
-      "password": "0714"
-    },
-    "book": {
-      "id": 7,
-      "name": "백설 공주",
-      "bookcollect": {
-        "id": 1,
-        "name": "세계 명작동화",
-        "delyn": "N"
-      },
-      "delyn": "N"
-    },
-    "content": "백설공주는 왜 사과를 먹어서...."
-  }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "basedate": "2023-10-31",
     "content": "내용",
     "type":"EAT",
@@ -1550,96 +1362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[
-    {
-        "id": 9,
-        "basedate": "2023-11-07",
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "type": "DO",
-        "content": "연날리기",
-        "okflag": "N"
-    },
-    {
-        "id": 8,
-        "basedate": "2023-11-02",
-        "user": {
-            "userid": "MOM",
-            "grade": "P",
-            "name": "엄마",
-            "password": "9999"
-        },
-        "type": "DO",
-        "content": "모두의 마블 게임하기",
-        "okflag": "N"
-    },
-    {
-        "id": 7,
-        "basedate": "2023-11-02",
-        "user": {
-            "userid": "MOM",
-            "grade": "P",
-            "name": "엄마",
-            "password": "9999"
-        },
-        "type": "GO",
-        "content": "공원가기",
-        "okflag": "N"
-    },
-    {
-        "id": 6,
-        "basedate": "2023-11-02",
-        "user": {
-            "userid": "MOM",
-            "grade": "P",
-            "name": "엄마",
-            "password": "9999"
-        },
-        "type": "EAT",
-        "content": "삼계탕 먹기",
-        "okflag": "N"
-    },
-    {
-        "id": 5,
-        "basedate": "2023-11-01",
-        "user": {
-            "userid": "MOM",
-            "grade": "P",
-            "name": "엄마",
-            "password": "9999"
-        },
-        "type": "GO",
-        "content": "박물관 가기",
-        "okflag": "N"
-    }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/suggest/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "id": 9,
-    "basedate": "2023-11-07",
-    "user": {
-        "userid": "DO",
-        "grade": "K",
-        "name": "도현",
-        "password": "0613"
-    },
-    "type": "DO",
-    "content": "연날리기",
-    "okflag": "N"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1665,128 +1387,6 @@
   </si>
   <si>
     <t>params{userid, startDate, endDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-    {
-        "id": 32,
-        "basedate": "2023-11-13",
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "type": "BOOK",
-        "content": "독후감 - 알라딘과 요술 램프",
-        "playtime": 10
-    },
-    {
-        "id": 31,
-        "basedate": "2023-11-08",
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "type": "ONEDAY",
-        "content": "오늘의 할일 완료",
-        "playtime": 10
-    },
-    {
-        "id": 30,
-        "basedate": "2023-11-07",
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "type": "BOOK",
-        "content": "독후감 - 미운 아기 오리",
-        "playtime": 10
-    },
-    {
-        "id": 29,
-        "basedate": "2023-11-07",
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "type": "ONEDAY",
-        "content": "오늘의 할일 완료",
-        "playtime": 10
-    },
-    {
-        "id": 28,
-        "basedate": "2023-11-02",
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "type": "AMAZING",
-        "content": "책상정리를 했어요",
-        "playtime": 10
-    },
-    {
-        "id": 27,
-        "basedate": "2023-11-02",
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "type": "AMAZING",
-        "content": "청소를 도왔어요",
-        "playtime": 10
-    },
-    {
-        "id": 7,
-        "basedate": "2023-11-02",
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "type": "ONEDAY",
-        "content": "오늘의 할일 완료",
-        "playtime": 10
-    },
-    {
-        "id": 6,
-        "basedate": "2023-11-02",
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "type": "BOOK",
-        "content": "독후감 - 백설 공주",
-        "playtime": 10
-    },
-    {
-        "id": 4,
-        "basedate": "2023-11-01",
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "type": "ONEDAY",
-        "content": "오늘의 할일 완료",
-        "playtime": 10
-    }
-]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1802,35 +1402,403 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[
-    {
-        "id": "MIN",
-        "user": {
-            "userid": "MIN",
-            "grade": "K",
-            "name": "민찬",
-            "password": "0714"
-        },
-        "totaltime": 60
-    },
-    {
-        "id": "DO",
-        "user": {
-            "userid": "DO",
-            "grade": "K",
-            "name": "도현",
-            "password": "0613"
-        },
-        "totaltime": 60
-    }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "id": "MIN",
     "time": 30
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안 조회(1건)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/suggest/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "id": 9,
+    "basedate": "2023-11-07",
+    "type": "DO",
+    "content": "연날리기",
+    "okflag": "N",
+    "userid": "DO",
+    "username": "도현"
+  },
+  {
+    "id": 8,
+    "basedate": "2023-11-02",
+    "type": "DO",
+    "content": "모두의 마블 게임하기",
+    "okflag": "N",
+    "userid": "MOM",
+    "username": "엄마"
+  },
+  {
+    "id": 7,
+    "basedate": "2023-11-02",
+    "type": "GO",
+    "content": "공원가기",
+    "okflag": "N",
+    "userid": "MOM",
+    "username": "엄마"
+  },
+  {
+    "id": 6,
+    "basedate": "2023-11-02",
+    "type": "EAT",
+    "content": "삼계탕 먹기",
+    "okflag": "N",
+    "userid": "MOM",
+    "username": "엄마"
+  },
+  {
+    "id": 5,
+    "basedate": "2023-11-01",
+    "type": "GO",
+    "content": "박물관 가기",
+    "okflag": "N",
+    "userid": "MOM",
+    "username": "엄마"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 3,
+        "defineday": "월화수목금",
+        "content": "아이캔두",
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 4,
+        "defineday": "월화수목금",
+        "content": "아이캔두",
+        "userid": "DO",
+        "username": "도현"
+    },
+    {
+        "id": 5,
+        "defineday": "월화수목금",
+        "content": "도요새",
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 6,
+        "defineday": "월화수목금",
+        "content": "도요새",
+        "userid": "DO",
+        "username": "도현"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 3,
+        "defineday": "월화수목금",
+        "content": "아이캔두",
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 5,
+        "defineday": "월화수목금",
+        "content": "도요새",
+        "userid": "MIN",
+        "username": "민찬"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 41,
+        "basedate": "2023-11-10",
+        "content": "아이캔두",
+        "done": "N",
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 42,
+        "basedate": "2023-11-10",
+        "content": "도요새",
+        "done": "N",
+        "userid": "MIN",
+        "username": "민찬"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "basedate": "2023-10-31",
+    "content": "인어공주는 물거품이 되었어요. 너무 슬프다. ㅠㅠ",
+    "userid": "MIN",
+    "username": "민찬",
+    "bookid": 1,
+    "bookname": "인어공주"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 5,
+        "basedate": "2023-11-13",
+        "content": "나도 램프를 가지면 소원을 빌어야지",
+        "userid": "DO",
+        "username": "도현",
+        "bookid": 6,
+        "bookname": "알라딘과 요술 램프"
+    },
+    {
+        "id": 3,
+        "basedate": "2023-11-07",
+        "content": "아기 오리가 더 귀여운데..",
+        "userid": "DO",
+        "username": "도현",
+        "bookid": 5,
+        "bookname": "미운 아기 오리"
+    },
+    {
+        "id": 2,
+        "basedate": "2023-11-02",
+        "content": "백설공주는 왜 사과를 먹어서....",
+        "userid": "MIN",
+        "username": "민찬",
+        "bookid": 7,
+        "bookname": "백설 공주"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1,
+        "basedate": "2023-10-31",
+        "content": "인어공주는 물거품이 되었어요. 너무 슬프다. ㅠㅠ",
+        "userid": "MIN",
+        "username": "민찬",
+        "bookid": 1,
+        "bookname": "인어공주"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 41,
+        "basedate": "2023-11-10",
+        "content": "아이캔두",
+        "done": "N",
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 42,
+        "basedate": "2023-11-10",
+        "content": "도요새",
+        "done": "N",
+        "userid": "MIN",
+        "username": "민찬"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 41,
+        "basedate": "2023-11-14",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 33,
+        "basedate": "2023-11-13",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "DO",
+        "username": "도현"
+    },
+    {
+        "id": 32,
+        "basedate": "2023-11-13",
+        "type": "BOOK",
+        "content": "독후감 - 알라딘과 요술 램프",
+        "playtime": 10,
+        "userid": "DO",
+        "username": "도현"
+    },
+    {
+        "id": 31,
+        "basedate": "2023-11-08",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "DO",
+        "username": "도현"
+    },
+    {
+        "id": 30,
+        "basedate": "2023-11-07",
+        "type": "BOOK",
+        "content": "독후감 - 미운 아기 오리",
+        "playtime": 10,
+        "userid": "DO",
+        "username": "도현"
+    },
+    {
+        "id": 29,
+        "basedate": "2023-11-07",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "DO",
+        "username": "도현"
+    },
+    {
+        "id": 28,
+        "basedate": "2023-11-02",
+        "type": "AMAZING",
+        "content": "책상정리를 했어요",
+        "playtime": 10,
+        "userid": "DO",
+        "username": "도현"
+    },
+    {
+        "id": 27,
+        "basedate": "2023-11-02",
+        "type": "AMAZING",
+        "content": "청소를 도왔어요",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 7,
+        "basedate": "2023-11-02",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 6,
+        "basedate": "2023-11-02",
+        "type": "BOOK",
+        "content": "독후감 - 백설 공주",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 4,
+        "basedate": "2023-11-01",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 41,
+        "basedate": "2023-11-14",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 27,
+        "basedate": "2023-11-02",
+        "type": "AMAZING",
+        "content": "청소를 도왔어요",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 7,
+        "basedate": "2023-11-02",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 6,
+        "basedate": "2023-11-02",
+        "type": "BOOK",
+        "content": "독후감 - 백설 공주",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": 4,
+        "basedate": "2023-11-01",
+        "type": "ONEDAY",
+        "content": "오늘의 할일 완료",
+        "playtime": 10,
+        "userid": "MIN",
+        "username": "민찬"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": "MIN",
+        "totaltime": 70,
+        "userid": "MIN",
+        "username": "민찬"
+    },
+    {
+        "id": "DO",
+        "totaltime": 70,
+        "userid": "DO",
+        "username": "도현"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number : ex) 70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2097,7 +2065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2165,6 +2133,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2203,9 +2177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2215,10 +2186,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3465,8 +3436,8 @@
   <dimension ref="A2:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3477,14 +3448,14 @@
     <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="8" max="8" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
@@ -3501,14 +3472,14 @@
         <v>3</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
@@ -3522,17 +3493,17 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>239</v>
+        <v>105</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3543,36 +3514,36 @@
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>242</v>
+        <v>87</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>243</v>
+        <v>87</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
@@ -3580,17 +3551,17 @@
         <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>73</v>
       </c>
@@ -3601,18 +3572,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>240</v>
+        <v>104</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
@@ -3623,27 +3594,27 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>241</v>
+        <v>110</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -3651,39 +3622,39 @@
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>244</v>
+      <c r="G9" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>245</v>
+        <v>224</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>47</v>
@@ -3695,13 +3666,13 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -3710,64 +3681,64 @@
         <v>50</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="39" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="H12" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="264" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>248</v>
+        <v>135</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="32" t="s">
-        <v>218</v>
+        <v>104</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="297" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="34" t="s">
+        <v>215</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>250</v>
+      <c r="D15" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -3776,20 +3747,20 @@
         <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>246</v>
+        <v>116</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
@@ -3801,13 +3772,13 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>52</v>
@@ -3816,38 +3787,38 @@
         <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
+    <row r="18" spans="1:8" ht="297" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>246</v>
+        <v>117</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>220</v>
+      <c r="A19" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>217</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
@@ -3861,19 +3832,19 @@
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="39" t="s">
-        <v>253</v>
+      <c r="G19" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>12</v>
@@ -3881,14 +3852,14 @@
       <c r="F20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="40" t="s">
-        <v>254</v>
+      <c r="G20" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
@@ -3904,8 +3875,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
@@ -3916,39 +3887,39 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="39" t="s">
-        <v>251</v>
+      <c r="H22" s="22" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>252</v>
+      <c r="H23" s="22" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="22" t="s">
-        <v>221</v>
+      <c r="A24" s="35"/>
+      <c r="B24" s="24" t="s">
+        <v>218</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>45</v>
@@ -3962,14 +3933,14 @@
       <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>257</v>
+      <c r="G24" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="18" t="s">
         <v>38</v>
       </c>
@@ -3980,16 +3951,16 @@
         <v>12</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>258</v>
+        <v>222</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
@@ -4006,8 +3977,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
@@ -4021,37 +3992,37 @@
         <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>256</v>
+        <v>104</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>255</v>
+      <c r="H28" s="22" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4064,16 +4035,16 @@
         <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>259</v>
+        <v>126</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="18" t="s">
         <v>66</v>
       </c>
@@ -4086,14 +4057,14 @@
       <c r="F30" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="40" t="s">
-        <v>260</v>
+      <c r="G30" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
@@ -4109,9 +4080,9 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="363" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+    <row r="32" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="8" t="s">
         <v>67</v>
       </c>
@@ -4122,18 +4093,18 @@
         <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>261</v>
+        <v>104</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="8" t="s">
         <v>40</v>
       </c>
@@ -4147,61 +4118,61 @@
         <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="198" x14ac:dyDescent="0.3">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
@@ -4209,57 +4180,57 @@
         <v>77</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>263</v>
+        <v>94</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>255</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="G37" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>232</v>
-      </c>
       <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="3" t="s">
         <v>41</v>
       </c>
@@ -4270,125 +4241,123 @@
         <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="39" t="s">
+      <c r="D40" s="19" t="s">
         <v>266</v>
       </c>
+      <c r="E40" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>264</v>
+        <v>110</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="18" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>222</v>
+      <c r="B45" s="24" t="s">
+        <v>219</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>37</v>
@@ -4400,18 +4369,18 @@
         <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="22"/>
+        <v>109</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="35"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="3" t="s">
         <v>38</v>
       </c>
@@ -4425,15 +4394,15 @@
         <v>75</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
         <v>37</v>
       </c>
@@ -4444,40 +4413,40 @@
         <v>30</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>275</v>
+        <v>234</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="23" t="s">
-        <v>223</v>
+      <c r="A48" s="35"/>
+      <c r="B48" s="25" t="s">
+        <v>220</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="363" x14ac:dyDescent="0.3">
-      <c r="A49" s="33"/>
-      <c r="B49" s="22"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="231" x14ac:dyDescent="0.3">
+      <c r="A49" s="35"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="3" t="s">
         <v>38</v>
       </c>
@@ -4488,18 +4457,18 @@
         <v>31</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="39" t="s">
-        <v>276</v>
+      <c r="H49" s="22" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>28</v>
@@ -4510,8 +4479,8 @@
       <c r="F50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="39" t="s">
-        <v>277</v>
+      <c r="G50" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -4556,20 +4525,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H2" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="37"/>
+      <c r="H2" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H4" s="10"/>
-      <c r="K4" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="L4" s="37"/>
+      <c r="K4" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C5" s="13"/>
@@ -4593,151 +4562,140 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="E7" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="H7" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="K7" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="E7" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="H7" s="35" t="s">
+      <c r="L7" s="40"/>
+      <c r="N7" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" s="40"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="E8" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="K7" s="35" t="s">
+      <c r="F8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="K8" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="N7" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="L8" s="24"/>
+      <c r="N8" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O8" s="24"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="E9" s="12"/>
+      <c r="H9" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E10" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="H10" s="12"/>
+      <c r="N10" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="E8" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="H8" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="K8" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="N8" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="E9" s="12"/>
-      <c r="H9" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E10" s="35" t="s">
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E11" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="H11" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="H10" s="12"/>
-      <c r="N10" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="O10" s="35"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E11" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="H11" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="N11" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="O11" s="22"/>
+      <c r="I11" s="40"/>
+      <c r="N11" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E12" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="H12" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="I12" s="22"/>
+      <c r="E12" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="H12" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H14" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="35"/>
+      <c r="H14" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H15" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I15" s="25"/>
+      <c r="H15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H16" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="I16" s="22"/>
+      <c r="H16" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="35"/>
+      <c r="H18" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I19" s="25"/>
+      <c r="H19" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="I20" s="22"/>
+      <c r="H20" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="N8:O8"/>
@@ -4754,6 +4712,17 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4795,77 +4764,77 @@
   <sheetData>
     <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>36</v>
@@ -4873,204 +4842,204 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/sweethome_정의서.xlsx
+++ b/sweethome_정의서.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="5325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="5325" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="서버요청-응답" sheetId="1" r:id="rId1"/>
     <sheet name="화면구성" sheetId="4" r:id="rId2"/>
-    <sheet name="클라이언트화면캡쳐" sheetId="2" r:id="rId3"/>
+    <sheet name="클라이언트화면캡쳐 V1" sheetId="2" r:id="rId3"/>
     <sheet name="REACT URI" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -585,9 +585,6 @@
   </si>
   <si>
     <t>/schedule/:id</t>
-  </si>
-  <si>
-    <t>/library/admin/books/new/:colid</t>
   </si>
   <si>
     <t>/</t>
@@ -1799,6 +1796,10 @@
   </si>
   <si>
     <t>number : ex) 70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/library/admin/books/new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2138,6 +2139,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2188,9 +2192,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3435,9 +3436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3452,10 +3453,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
@@ -3476,10 +3477,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
@@ -3496,14 +3497,14 @@
         <v>105</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
@@ -3517,18 +3518,18 @@
         <v>87</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="18" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>12</v>
@@ -3537,13 +3538,13 @@
         <v>87</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
@@ -3560,8 +3561,8 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3" t="s">
         <v>73</v>
       </c>
@@ -3578,12 +3579,12 @@
         <v>104</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
@@ -3600,14 +3601,14 @@
         <v>110</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3623,13 +3624,13 @@
         <v>48</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="18" t="s">
         <v>38</v>
       </c>
@@ -3637,19 +3638,19 @@
         <v>119</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>224</v>
-      </c>
       <c r="G10" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -3666,8 +3667,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
@@ -3682,12 +3683,12 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="264" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3698,18 +3699,18 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
@@ -3726,19 +3727,19 @@
         <v>104</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="297" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="34" t="s">
-        <v>215</v>
+      <c r="A15" s="36"/>
+      <c r="B15" s="35" t="s">
+        <v>214</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
@@ -3750,12 +3751,12 @@
         <v>116</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
@@ -3772,8 +3773,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
@@ -3787,13 +3788,13 @@
         <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="297" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="3" t="s">
         <v>97</v>
       </c>
@@ -3810,15 +3811,15 @@
         <v>117</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>216</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>217</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
@@ -3833,18 +3834,18 @@
         <v>15</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>12</v>
@@ -3853,13 +3854,13 @@
         <v>15</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
@@ -3875,8 +3876,8 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
@@ -3891,12 +3892,12 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
@@ -3913,13 +3914,13 @@
         <v>104</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="24" t="s">
-        <v>218</v>
+      <c r="A24" s="36"/>
+      <c r="B24" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>45</v>
@@ -3934,13 +3935,13 @@
         <v>22</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="18" t="s">
         <v>38</v>
       </c>
@@ -3951,16 +3952,16 @@
         <v>12</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
@@ -3977,8 +3978,8 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
@@ -3995,12 +3996,12 @@
         <v>104</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="3" t="s">
         <v>46</v>
       </c>
@@ -4017,12 +4018,12 @@
         <v>108</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4038,13 +4039,13 @@
         <v>126</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="18" t="s">
         <v>66</v>
       </c>
@@ -4058,13 +4059,13 @@
         <v>62</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
@@ -4080,9 +4081,9 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="165" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
+    <row r="32" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="8" t="s">
         <v>67</v>
       </c>
@@ -4099,12 +4100,12 @@
         <v>104</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="8" t="s">
         <v>40</v>
       </c>
@@ -4121,12 +4122,12 @@
         <v>110</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="198" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="8" t="s">
         <v>93</v>
       </c>
@@ -4143,12 +4144,12 @@
         <v>128</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="18" t="s">
         <v>37</v>
       </c>
@@ -4156,10 +4157,10 @@
         <v>90</v>
       </c>
       <c r="E35" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>257</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>109</v>
@@ -4169,10 +4170,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
@@ -4186,33 +4187,33 @@
         <v>94</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="E37" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="F37" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="G37" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="3" t="s">
         <v>81</v>
       </c>
@@ -4229,8 +4230,8 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="3" t="s">
         <v>41</v>
       </c>
@@ -4247,26 +4248,26 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="E40" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="F40" s="20" t="s">
         <v>267</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>268</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="3" t="s">
         <v>41</v>
       </c>
@@ -4283,12 +4284,12 @@
         <v>110</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
@@ -4309,55 +4310,55 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E43" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="F43" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="G43" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>219</v>
+      <c r="B45" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>37</v>
@@ -4374,13 +4375,13 @@
       <c r="G45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="41" t="s">
-        <v>278</v>
+      <c r="H45" s="24" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="3" t="s">
         <v>38</v>
       </c>
@@ -4397,12 +4398,12 @@
         <v>110</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="3" t="s">
         <v>37</v>
       </c>
@@ -4413,23 +4414,23 @@
         <v>30</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="25" t="s">
-        <v>220</v>
+      <c r="A48" s="36"/>
+      <c r="B48" s="26" t="s">
+        <v>219</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>29</v>
@@ -4441,12 +4442,12 @@
         <v>111</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="231" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="3" t="s">
         <v>38</v>
       </c>
@@ -4461,12 +4462,12 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="3" t="s">
         <v>91</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>33</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H50" s="1"/>
     </row>
@@ -4513,7 +4514,7 @@
   <dimension ref="B2:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B2" sqref="B2:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4525,20 +4526,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H2" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="38"/>
+      <c r="H2" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H4" s="10"/>
-      <c r="K4" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="38"/>
+      <c r="K4" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C5" s="13"/>
@@ -4562,137 +4563,137 @@
       <c r="N6" s="11"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="E7" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="41"/>
+      <c r="H7" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="41"/>
+      <c r="K7" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="K7" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="N7" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="O7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="N7" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="K8" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="25"/>
+      <c r="N8" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="E8" s="24" t="s">
+      <c r="C9" s="25"/>
+      <c r="E9" s="12"/>
+      <c r="H9" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E10" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="H10" s="12"/>
+      <c r="N10" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E11" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="H8" s="24" t="s">
+      <c r="F11" s="25"/>
+      <c r="H11" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="N11" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E12" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="H12" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="K8" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="N8" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="O8" s="24"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="E9" s="12"/>
-      <c r="H9" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E10" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="H10" s="12"/>
-      <c r="N10" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="O10" s="40"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E11" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="H11" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="I11" s="40"/>
-      <c r="N11" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="O11" s="24"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E12" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="H12" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H14" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="I14" s="40"/>
+      <c r="H14" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H15" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="I15" s="27"/>
+      <c r="H15" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="H16" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="24"/>
+      <c r="H16" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="40"/>
+      <c r="H18" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="27"/>
+      <c r="H19" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" s="24"/>
+      <c r="H20" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4733,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4749,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4764,54 +4765,54 @@
   <sheetData>
     <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4820,21 +4821,21 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>36</v>
@@ -4842,204 +4843,204 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
